--- a/data/section_codes.xlsx
+++ b/data/section_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4_CSE_A</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4_CSE_B</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4_CSE_C</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4_CSE_D</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4_CSE_E</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4_AIDS_F</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4_AIDS_G</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4_AIDS_H</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4_CSBT_I</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4_IoTA_J</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4_IT_K</t>
+          <t>Sec K</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4_IT_L</t>
+          <t>Sec L</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4_ICT_M</t>
+          <t>Sec M</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4_CSBS_N</t>
+          <t>Sec N</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6_CSE_A</t>
+          <t>Sec O</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6_CSE_B</t>
+          <t>Sec P</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6_CSE_C</t>
+          <t>Sec Q</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6_CSE_D</t>
+          <t>Sec R</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6_CSE_E</t>
+          <t>Sec S</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,108 +676,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6_AIDS_F</t>
+          <t>Sec T</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>SEC_019</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6_AIDS_G</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SEC_020</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>6_AIDS_H</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SEC_021</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>6_CSBT_I</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SEC_022</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>6_IoTA_J</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SEC_023</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>6_IT_K</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SEC_024</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>6_IT_L</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SEC_025</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>6_ICT_M</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SEC_026</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>6_CSBS_N</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
         </is>
       </c>
     </row>
